--- a/data/trans_orig/P6710-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7230E614-2CC8-4119-BA4F-8C470C7B6EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C4B9651-7D1C-40BF-A0D1-32AF5EC8909F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C046A2E9-38ED-4602-8C1F-0628C3D053E6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2260B09-EC3C-469F-976E-FE3D0ED6BE2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="364">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -75,1042 +75,1060 @@
     <t>9,63%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>8,23%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>27,06%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>24,03%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2214E8A4-5249-4927-8126-DDB532914B22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A0E90C-86F3-42F9-8C01-4DF0C3CBE762}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1748,13 +1766,13 @@
         <v>28697</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -1766,10 +1784,10 @@
         <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -1778,19 +1796,19 @@
         <v>47466</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>34</v>
@@ -1799,13 +1817,13 @@
         <v>34471</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -1814,13 +1832,13 @@
         <v>18231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -1829,19 +1847,19 @@
         <v>52702</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>88</v>
@@ -1850,13 +1868,13 @@
         <v>89630</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -1865,13 +1883,13 @@
         <v>72927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>156</v>
@@ -1880,13 +1898,13 @@
         <v>162557</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1919,13 @@
         <v>181597</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
@@ -1916,13 +1934,13 @@
         <v>137992</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>302</v>
@@ -1931,18 +1949,18 @@
         <v>319589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1954,13 +1972,13 @@
         <v>98094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -1969,13 +1987,13 @@
         <v>71092</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -1984,13 +2002,13 @@
         <v>169187</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +2023,13 @@
         <v>76119</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -2020,13 +2038,13 @@
         <v>63834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>129</v>
@@ -2035,13 +2053,13 @@
         <v>139953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2074,13 @@
         <v>195173</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>101</v>
@@ -2071,13 +2089,13 @@
         <v>107980</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>287</v>
@@ -2086,19 +2104,19 @@
         <v>303153</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>191</v>
@@ -2107,13 +2125,13 @@
         <v>196237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -2122,13 +2140,13 @@
         <v>129998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>314</v>
@@ -2137,19 +2155,19 @@
         <v>326235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>325</v>
@@ -2158,13 +2176,13 @@
         <v>344214</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -2173,13 +2191,13 @@
         <v>196745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -2188,13 +2206,13 @@
         <v>540959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2227,13 @@
         <v>909837</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>532</v>
@@ -2224,13 +2242,13 @@
         <v>569650</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1394</v>
@@ -2239,18 +2257,18 @@
         <v>1479487</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2262,13 +2280,13 @@
         <v>23014</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -2277,13 +2295,13 @@
         <v>32954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -2292,13 +2310,13 @@
         <v>55968</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2331,13 @@
         <v>24568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2328,13 +2346,13 @@
         <v>18768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2343,13 +2361,13 @@
         <v>43336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2382,13 @@
         <v>68825</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -2379,13 +2397,13 @@
         <v>50476</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>108</v>
@@ -2394,19 +2412,19 @@
         <v>119300</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>65</v>
@@ -2415,13 +2433,13 @@
         <v>69403</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -2430,13 +2448,13 @@
         <v>38704</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -2445,19 +2463,19 @@
         <v>108107</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>114</v>
@@ -2466,13 +2484,13 @@
         <v>128544</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -2481,13 +2499,13 @@
         <v>91044</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -2496,13 +2514,13 @@
         <v>219587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2535,13 @@
         <v>314353</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>207</v>
@@ -2532,13 +2550,13 @@
         <v>231945</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>492</v>
@@ -2547,13 +2565,13 @@
         <v>546298</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2588,13 @@
         <v>138589</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -2585,13 +2603,13 @@
         <v>122811</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>243</v>
@@ -2600,13 +2618,13 @@
         <v>261400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2639,13 @@
         <v>112006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -2636,13 +2654,13 @@
         <v>91903</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>185</v>
@@ -2651,13 +2669,13 @@
         <v>203909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2690,13 @@
         <v>292694</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>164</v>
@@ -2687,13 +2705,13 @@
         <v>177225</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>437</v>
@@ -2702,19 +2720,19 @@
         <v>469919</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>290</v>
@@ -2723,13 +2741,13 @@
         <v>300111</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>176</v>
@@ -2738,34 +2756,34 @@
         <v>186933</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>466</v>
       </c>
       <c r="N25" s="7">
-        <v>487044</v>
+        <v>487043</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>527</v>
@@ -2774,13 +2792,13 @@
         <v>562387</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>330</v>
@@ -2789,13 +2807,13 @@
         <v>360716</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="M26" s="7">
         <v>857</v>
@@ -2804,13 +2822,13 @@
         <v>923103</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2843,13 @@
         <v>1405786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>867</v>
@@ -2840,33 +2858,33 @@
         <v>939587</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2188</v>
       </c>
       <c r="N27" s="7">
-        <v>2345374</v>
+        <v>2345373</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2220E9-87C7-4008-87E1-CCB066596D01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7CA28A-1D0F-4799-9950-DC4D54A16E4D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2902,7 +2920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3009,13 +3027,13 @@
         <v>22958</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3024,13 +3042,13 @@
         <v>14934</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -3039,13 +3057,13 @@
         <v>37893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3078,13 @@
         <v>20692</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3075,13 +3093,13 @@
         <v>9101</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3090,13 +3108,13 @@
         <v>29793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3129,13 @@
         <v>29429</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -3126,13 +3144,13 @@
         <v>17760</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -3141,19 +3159,19 @@
         <v>47189</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>35</v>
@@ -3162,13 +3180,13 @@
         <v>36405</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -3177,13 +3195,13 @@
         <v>20004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -3192,19 +3210,19 @@
         <v>56408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>32</v>
@@ -3213,13 +3231,13 @@
         <v>33634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3228,13 +3246,13 @@
         <v>10288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -3243,13 +3261,13 @@
         <v>43923</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3282,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3279,13 +3297,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3294,18 +3312,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3317,13 +3335,13 @@
         <v>113069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3332,13 +3350,13 @@
         <v>90684</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
@@ -3347,13 +3365,13 @@
         <v>203753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3386,13 @@
         <v>155909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -3383,13 +3401,13 @@
         <v>127591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -3398,13 +3416,13 @@
         <v>283500</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3437,13 @@
         <v>243837</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>167</v>
@@ -3434,13 +3452,13 @@
         <v>170083</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>399</v>
@@ -3449,19 +3467,19 @@
         <v>413920</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>184</v>
@@ -3470,13 +3488,13 @@
         <v>197188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -3485,13 +3503,13 @@
         <v>128684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>308</v>
@@ -3500,19 +3518,19 @@
         <v>325872</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>199</v>
@@ -3521,13 +3539,13 @@
         <v>215193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>130</v>
@@ -3536,13 +3554,13 @@
         <v>135734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>329</v>
@@ -3551,13 +3569,13 @@
         <v>350927</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3590,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -3587,13 +3605,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -3602,18 +3620,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3625,13 +3643,13 @@
         <v>45425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -3640,13 +3658,13 @@
         <v>50354</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3655,13 +3673,13 @@
         <v>95780</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3694,13 @@
         <v>48291</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -3691,13 +3709,13 @@
         <v>52130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -3706,13 +3724,13 @@
         <v>100421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3745,13 @@
         <v>88785</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -3742,13 +3760,13 @@
         <v>75011</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>156</v>
@@ -3757,19 +3775,19 @@
         <v>163796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>57</v>
@@ -3778,13 +3796,13 @@
         <v>63765</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -3793,13 +3811,13 @@
         <v>40950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -3808,19 +3826,19 @@
         <v>104715</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>99</v>
@@ -3829,13 +3847,13 @@
         <v>104342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -3844,13 +3862,13 @@
         <v>90008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>180</v>
@@ -3859,13 +3877,13 @@
         <v>194349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3898,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -3895,13 +3913,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3910,13 +3928,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3951,13 @@
         <v>181453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
@@ -3948,13 +3966,13 @@
         <v>155972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>319</v>
@@ -3963,13 +3981,13 @@
         <v>337425</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +4002,13 @@
         <v>224892</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
         <v>187</v>
@@ -3999,13 +4017,13 @@
         <v>188822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M23" s="7">
         <v>396</v>
@@ -4014,13 +4032,13 @@
         <v>413714</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4053,13 @@
         <v>362052</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>261</v>
@@ -4050,13 +4068,13 @@
         <v>262854</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M24" s="7">
         <v>601</v>
@@ -4065,19 +4083,19 @@
         <v>624906</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>276</v>
@@ -4086,13 +4104,13 @@
         <v>297358</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>186</v>
@@ -4101,13 +4119,13 @@
         <v>189637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>462</v>
@@ -4116,19 +4134,19 @@
         <v>486995</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>330</v>
@@ -4137,13 +4155,13 @@
         <v>353170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>221</v>
@@ -4152,13 +4170,13 @@
         <v>236029</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
         <v>551</v>
@@ -4167,13 +4185,13 @@
         <v>589199</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4206,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4203,13 +4221,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4218,18 +4236,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6710-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C4B9651-7D1C-40BF-A0D1-32AF5EC8909F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA800FA1-B749-407D-AE10-BE74E07D6163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2260B09-EC3C-469F-976E-FE3D0ED6BE2E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F942B44D-03D3-4E6C-854B-DA6E69F8B7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="358">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -75,1060 +75,1042 @@
     <t>9,63%</t>
   </si>
   <si>
-    <t>5,98%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A0E90C-86F3-42F9-8C01-4DF0C3CBE762}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DBA321-D3AB-434F-BDC2-2855A7CDA5B5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2158,10 +2140,10 @@
         <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2158,13 @@
         <v>344214</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -2191,13 +2173,13 @@
         <v>196745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -2206,13 +2188,13 @@
         <v>540959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,7 +2250,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2280,13 +2262,13 @@
         <v>23014</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -2295,13 +2277,13 @@
         <v>32954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -2310,13 +2292,13 @@
         <v>55968</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2313,13 @@
         <v>24568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2346,13 +2328,13 @@
         <v>18768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2361,13 +2343,13 @@
         <v>43336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2364,13 @@
         <v>68825</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -2397,13 +2379,13 @@
         <v>50476</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>108</v>
@@ -2412,13 +2394,13 @@
         <v>119300</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2415,13 @@
         <v>69403</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -2448,13 +2430,13 @@
         <v>38704</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -2463,13 +2445,13 @@
         <v>108107</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2466,13 @@
         <v>128544</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -2499,13 +2481,13 @@
         <v>91044</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -2514,13 +2496,13 @@
         <v>219587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,7 +2570,7 @@
         <v>138589</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>152</v>
@@ -2621,10 +2603,10 @@
         <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2621,13 @@
         <v>112006</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -2654,13 +2636,13 @@
         <v>91903</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>185</v>
@@ -2669,13 +2651,13 @@
         <v>203909</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2672,13 @@
         <v>292694</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>164</v>
@@ -2705,13 +2687,13 @@
         <v>177225</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>437</v>
@@ -2720,13 +2702,13 @@
         <v>469919</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2723,13 @@
         <v>300111</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>176</v>
@@ -2756,28 +2738,28 @@
         <v>186933</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>466</v>
       </c>
       <c r="N25" s="7">
-        <v>487043</v>
+        <v>487044</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2774,13 @@
         <v>562387</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>330</v>
@@ -2807,13 +2789,13 @@
         <v>360716</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M26" s="7">
         <v>857</v>
@@ -2822,13 +2804,13 @@
         <v>923103</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,7 +2852,7 @@
         <v>2188</v>
       </c>
       <c r="N27" s="7">
-        <v>2345373</v>
+        <v>2345374</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -2884,7 +2866,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7CA28A-1D0F-4799-9950-DC4D54A16E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991B0A6A-76AC-4FCA-A422-22A336F47754}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2920,7 +2902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3027,13 +3009,13 @@
         <v>22958</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3042,13 +3024,13 @@
         <v>14934</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -3057,13 +3039,13 @@
         <v>37893</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3060,13 @@
         <v>20692</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3093,13 +3075,13 @@
         <v>9101</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3108,13 +3090,13 @@
         <v>29793</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3111,13 @@
         <v>29429</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -3144,13 +3126,13 @@
         <v>17760</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -3159,13 +3141,13 @@
         <v>47189</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3162,13 @@
         <v>36405</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -3195,13 +3177,13 @@
         <v>20004</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -3210,13 +3192,13 @@
         <v>56408</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3213,13 @@
         <v>33634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3246,13 +3228,13 @@
         <v>10288</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -3261,13 +3243,13 @@
         <v>43923</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3317,13 @@
         <v>113069</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3350,13 +3332,13 @@
         <v>90684</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
@@ -3365,13 +3347,13 @@
         <v>203753</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3368,13 @@
         <v>155909</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -3401,13 +3383,13 @@
         <v>127591</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -3416,13 +3398,13 @@
         <v>283500</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,10 +3503,10 @@
         <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3551,13 @@
         <v>350927</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,7 +3613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3643,13 +3625,13 @@
         <v>45425</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -3658,13 +3640,13 @@
         <v>50354</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3673,13 +3655,13 @@
         <v>95780</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3676,13 @@
         <v>48291</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -3709,13 +3691,13 @@
         <v>52130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -3724,13 +3706,13 @@
         <v>100421</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3727,13 @@
         <v>88785</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -3760,13 +3742,13 @@
         <v>75011</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>156</v>
@@ -3775,13 +3757,13 @@
         <v>163796</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3778,13 @@
         <v>63765</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -3811,13 +3793,13 @@
         <v>40950</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -3826,13 +3808,13 @@
         <v>104715</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3829,13 @@
         <v>104342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -3862,13 +3844,13 @@
         <v>90008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>180</v>
@@ -3877,13 +3859,13 @@
         <v>194349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3933,13 @@
         <v>181453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
@@ -3966,13 +3948,13 @@
         <v>155972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>319</v>
@@ -3981,13 +3963,13 @@
         <v>337425</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3984,13 @@
         <v>224892</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>187</v>
@@ -4017,13 +3999,13 @@
         <v>188822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="M23" s="7">
         <v>396</v>
@@ -4032,13 +4014,13 @@
         <v>413714</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4035,13 @@
         <v>362052</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>261</v>
@@ -4068,13 +4050,13 @@
         <v>262854</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>601</v>
@@ -4083,13 +4065,13 @@
         <v>624906</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4086,13 @@
         <v>297358</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>48</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>186</v>
@@ -4119,13 +4101,13 @@
         <v>189637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>462</v>
@@ -4134,13 +4116,13 @@
         <v>486995</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>16</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4137,13 @@
         <v>353170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>221</v>
@@ -4170,13 +4152,13 @@
         <v>236029</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>551</v>
@@ -4185,13 +4167,13 @@
         <v>589199</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4229,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6710-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA800FA1-B749-407D-AE10-BE74E07D6163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9F28BB1-C051-4A2B-9379-2BEE52F747EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F942B44D-03D3-4E6C-854B-DA6E69F8B7CD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE71F926-BE21-413B-B026-F38932284613}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,1042 +75,1042 @@
     <t>9,63%</t>
   </si>
   <si>
-    <t>5,86%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DBA321-D3AB-434F-BDC2-2855A7CDA5B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0293FCAF-85D0-41D1-953C-77D351359695}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1748,13 +1748,13 @@
         <v>28697</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -1766,10 +1766,10 @@
         <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -1778,19 +1778,19 @@
         <v>47466</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>34</v>
@@ -1799,13 +1799,13 @@
         <v>34471</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -1814,13 +1814,13 @@
         <v>18231</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -1829,19 +1829,19 @@
         <v>52702</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>88</v>
@@ -1850,13 +1850,13 @@
         <v>89630</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -1865,13 +1865,13 @@
         <v>72927</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>156</v>
@@ -1880,13 +1880,13 @@
         <v>162557</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1901,13 @@
         <v>181597</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
@@ -1916,13 +1916,13 @@
         <v>137992</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>302</v>
@@ -1931,18 +1931,18 @@
         <v>319589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1954,13 +1954,13 @@
         <v>98094</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -1969,13 +1969,13 @@
         <v>71092</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -1984,13 +1984,13 @@
         <v>169187</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +2005,13 @@
         <v>76119</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -2020,13 +2020,13 @@
         <v>63834</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>129</v>
@@ -2035,13 +2035,13 @@
         <v>139953</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2056,13 @@
         <v>195173</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>101</v>
@@ -2071,13 +2071,13 @@
         <v>107980</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>287</v>
@@ -2086,19 +2086,19 @@
         <v>303153</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>191</v>
@@ -2107,13 +2107,13 @@
         <v>196237</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -2122,13 +2122,13 @@
         <v>129998</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>314</v>
@@ -2137,19 +2137,19 @@
         <v>326235</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>325</v>
@@ -2158,13 +2158,13 @@
         <v>344214</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -2173,13 +2173,13 @@
         <v>196745</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -2188,13 +2188,13 @@
         <v>540959</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2209,13 @@
         <v>909837</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>532</v>
@@ -2224,13 +2224,13 @@
         <v>569650</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>1394</v>
@@ -2239,18 +2239,18 @@
         <v>1479487</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2262,13 +2262,13 @@
         <v>23014</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -2277,13 +2277,13 @@
         <v>32954</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -2292,13 +2292,13 @@
         <v>55968</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2313,13 @@
         <v>24568</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2328,13 +2328,13 @@
         <v>18768</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2343,13 +2343,13 @@
         <v>43336</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2364,13 @@
         <v>68825</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -2379,13 +2379,13 @@
         <v>50476</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>108</v>
@@ -2394,19 +2394,19 @@
         <v>119300</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>65</v>
@@ -2415,13 +2415,13 @@
         <v>69403</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -2430,13 +2430,13 @@
         <v>38704</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -2445,19 +2445,19 @@
         <v>108107</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>114</v>
@@ -2466,13 +2466,13 @@
         <v>128544</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -2481,13 +2481,13 @@
         <v>91044</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -2496,13 +2496,13 @@
         <v>219587</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2517,13 @@
         <v>314353</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>207</v>
@@ -2532,13 +2532,13 @@
         <v>231945</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>492</v>
@@ -2547,13 +2547,13 @@
         <v>546298</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2570,13 @@
         <v>138589</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -2585,13 +2585,13 @@
         <v>122811</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>243</v>
@@ -2600,13 +2600,13 @@
         <v>261400</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2621,13 @@
         <v>112006</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -2636,13 +2636,13 @@
         <v>91903</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>185</v>
@@ -2651,13 +2651,13 @@
         <v>203909</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,10 +2672,10 @@
         <v>292694</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>169</v>
@@ -2714,7 +2714,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>290</v>
@@ -2756,16 +2756,16 @@
         <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>527</v>
@@ -2774,13 +2774,13 @@
         <v>562387</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>330</v>
@@ -2789,13 +2789,13 @@
         <v>360716</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>857</v>
@@ -2804,13 +2804,13 @@
         <v>923103</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2825,13 @@
         <v>1405786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>867</v>
@@ -2840,13 +2840,13 @@
         <v>939587</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>2188</v>
@@ -2855,18 +2855,18 @@
         <v>2345374</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991B0A6A-76AC-4FCA-A422-22A336F47754}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB5EC75-A57C-4AB2-8321-77BD025B5485}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2902,7 +2902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3009,13 +3009,13 @@
         <v>22958</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3024,13 +3024,13 @@
         <v>14934</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -3039,13 +3039,13 @@
         <v>37893</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3060,13 @@
         <v>20692</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3075,13 +3075,13 @@
         <v>9101</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3090,13 +3090,13 @@
         <v>29793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3111,13 @@
         <v>29429</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -3126,13 +3126,13 @@
         <v>17760</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -3141,19 +3141,19 @@
         <v>47189</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>35</v>
@@ -3162,13 +3162,13 @@
         <v>36405</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -3177,13 +3177,13 @@
         <v>20004</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -3192,19 +3192,19 @@
         <v>56408</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>32</v>
@@ -3213,13 +3213,13 @@
         <v>33634</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3228,13 +3228,13 @@
         <v>10288</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -3243,13 +3243,13 @@
         <v>43923</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3264,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3279,13 +3279,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3294,18 +3294,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3317,13 +3317,13 @@
         <v>113069</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3332,13 +3332,13 @@
         <v>90684</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
@@ -3347,13 +3347,13 @@
         <v>203753</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3368,13 @@
         <v>155909</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -3383,13 +3383,13 @@
         <v>127591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -3398,13 +3398,13 @@
         <v>283500</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3419,13 @@
         <v>243837</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>167</v>
@@ -3434,13 +3434,13 @@
         <v>170083</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>399</v>
@@ -3449,19 +3449,19 @@
         <v>413920</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>184</v>
@@ -3470,13 +3470,13 @@
         <v>197188</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -3485,13 +3485,13 @@
         <v>128684</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>308</v>
@@ -3500,19 +3500,19 @@
         <v>325872</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>199</v>
@@ -3521,13 +3521,13 @@
         <v>215193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>130</v>
@@ -3536,13 +3536,13 @@
         <v>135734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>329</v>
@@ -3551,13 +3551,13 @@
         <v>350927</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3572,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -3587,13 +3587,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -3602,18 +3602,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3625,13 +3625,13 @@
         <v>45425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -3640,13 +3640,13 @@
         <v>50354</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3655,13 +3655,13 @@
         <v>95780</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3676,13 @@
         <v>48291</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -3691,13 +3691,13 @@
         <v>52130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -3706,13 +3706,13 @@
         <v>100421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3727,13 @@
         <v>88785</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -3742,13 +3742,13 @@
         <v>75011</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>156</v>
@@ -3757,19 +3757,19 @@
         <v>163796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>57</v>
@@ -3778,13 +3778,13 @@
         <v>63765</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -3793,13 +3793,13 @@
         <v>40950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -3808,19 +3808,19 @@
         <v>104715</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>99</v>
@@ -3829,13 +3829,13 @@
         <v>104342</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -3844,13 +3844,13 @@
         <v>90008</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>180</v>
@@ -3859,13 +3859,13 @@
         <v>194349</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3880,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -3895,13 +3895,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3910,13 +3910,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3933,13 @@
         <v>181453</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
@@ -3948,10 +3948,10 @@
         <v>155972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>325</v>
@@ -3966,10 +3966,10 @@
         <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,10 +3984,10 @@
         <v>224892</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>209</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>330</v>
@@ -4002,10 +4002,10 @@
         <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M23" s="7">
         <v>396</v>
@@ -4020,7 +4020,7 @@
         <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4035,13 @@
         <v>362052</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>261</v>
@@ -4050,13 +4050,13 @@
         <v>262854</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>601</v>
@@ -4065,19 +4065,19 @@
         <v>624906</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>276</v>
@@ -4086,13 +4086,13 @@
         <v>297358</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>48</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>186</v>
@@ -4101,13 +4101,13 @@
         <v>189637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>255</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>462</v>
@@ -4116,19 +4116,19 @@
         <v>486995</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>330</v>
@@ -4188,13 +4188,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4203,13 +4203,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4218,18 +4218,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6710-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9F28BB1-C051-4A2B-9379-2BEE52F747EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51E939A-DBDE-485D-930C-B7FC8C45993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE71F926-BE21-413B-B026-F38932284613}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E25682C6-1611-4BD5-93F0-6FC86072A755}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -1522,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0293FCAF-85D0-41D1-953C-77D351359695}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078C3CD2-99F9-4045-B9E7-E0B1F0DF6429}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2750,7 +2750,7 @@
         <v>466</v>
       </c>
       <c r="N25" s="7">
-        <v>487044</v>
+        <v>487043</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>182</v>
@@ -2852,7 +2852,7 @@
         <v>2188</v>
       </c>
       <c r="N27" s="7">
-        <v>2345374</v>
+        <v>2345373</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -2885,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB5EC75-A57C-4AB2-8321-77BD025B5485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F54360-62A7-43ED-83AB-D3DF23322F07}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4215,7 +4215,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
